--- a/models/DevModelParameters.xlsx
+++ b/models/DevModelParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsites.cdw.va.gov/sites/PTSD_OMHO/640/100a1_abc_teama_2018_11_01/100a1_abc_teama_data_ui/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D3387148-8DC7-42C1-8C3E-97712767901D}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{76101B6A-99E2-4D8A-8CA9-D07AA3CB8C81}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{30F14DEA-E4DC-4D7D-8C51-606589E22A12}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t>Return Visit Interval (median)</t>
   </si>
   <si>
-    <t>The median return-to-clinic visit interval for care coordination visits with this team, calculated from the number of visits per patient over their entire engagement time. (wksssssseewweeeeeee)</t>
+    <t>The median return-to-clinic visit interval for care coordination visits with this team, calculated from the number of visits per patient over their entire engagement time. (wksssssseewweeeeeeeeeee)</t>
   </si>
   <si>
     <t>New Patient Wait Time (mean)</t>
@@ -98,7 +98,7 @@
     <t>New Patient Wait Time (median)</t>
   </si>
   <si>
-    <t>An estimate of new patient wait time between their first care coordination appointment being scheduled and that visit being completed with this team.  (wks)</t>
+    <t>An estimate of new patient wait time between their first care coordination appointment being scheduled and that visit being completed with this team.  (wksss)</t>
   </si>
   <si>
     <t>Appointment Supply (mean)</t>
@@ -119,7 +119,7 @@
     <t>Appointment Supply (75th percentile)</t>
   </si>
   <si>
-    <t>An estimate of the weekly number of care coordination appointments available with this team. The estimate is calculated using the volume of care coordination visits completed with the team over one year. (appt/wk)</t>
+    <t>An estimate of the weekly number of care coordination appointments available with this team. The estimate is calculated using the volume of care coordination visits completed with the team over one year. (appt/wkkf)</t>
   </si>
   <si>
     <t>Engagement (mean)</t>
@@ -1123,11 +1123,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1135,11 +1135,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1147,23 +1147,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2995,8 +2995,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3603,7 +3603,7 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3612,7 +3612,7 @@
       <c r="C3" s="2">
         <v>0.2</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="40" t="s">
@@ -3620,55 +3620,55 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>0.27</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="38"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="38"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="2">
         <v>0.52</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="45">
-      <c r="A7" s="39"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="2">
         <v>0.06</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="40"/>
@@ -3683,81 +3683,81 @@
       <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="47" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="38"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="38"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="38"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="38"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="38"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="39"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="2">
         <v>7</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="41" t="s">
@@ -3769,7 +3769,7 @@
       <c r="C15" s="15">
         <v>18</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="44" t="s">
         <v>89</v>
       </c>
       <c r="E15" s="40" t="s">
@@ -3777,196 +3777,196 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="38"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="2">
         <v>25</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="38"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="16">
         <v>18</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="38"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="15">
         <v>8</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="38"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="38"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="16">
         <v>8</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="38"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="38"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="38"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="2">
         <v>11</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="38"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="15">
         <v>18</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="44" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="38"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="2">
         <v>50</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="38"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="2">
         <v>91</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="38"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="15">
         <v>16</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="38"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="2">
         <v>28</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="38"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C29" s="2">
         <v>46</v>
       </c>
-      <c r="D29" s="42"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="38"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C30" s="15">
         <v>14</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="38"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="2">
         <v>38</v>
       </c>
-      <c r="D31" s="42"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="39"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="2">
         <v>88</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5" ht="45">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="35" t="s">
         <v>109</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -3975,7 +3975,7 @@
       <c r="C33" s="15">
         <v>2.44</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>111</v>
       </c>
       <c r="E33" s="14" t="s">
@@ -3983,7 +3983,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="38" t="s">
         <v>112</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -4000,7 +4000,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45">
-      <c r="A35" s="45"/>
+      <c r="A35" s="39"/>
       <c r="B35" t="s">
         <v>20</v>
       </c>
@@ -4015,14 +4015,14 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45">
-      <c r="A36" s="46"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="16">
         <v>13</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>113</v>
       </c>
       <c r="E36" s="19" t="s">
@@ -4030,7 +4030,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="38" t="s">
         <v>114</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -4039,7 +4039,7 @@
       <c r="C37" s="15">
         <v>161</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>116</v>
       </c>
       <c r="E37" s="14" t="s">
@@ -4047,26 +4047,26 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="45"/>
+      <c r="A38" s="39"/>
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="46" t="s">
         <v>118</v>
       </c>
       <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="46"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21">
         <v>0</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="45">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="38" t="s">
         <v>119</v>
       </c>
       <c r="B40" t="s">
@@ -4083,7 +4083,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="45">
-      <c r="A41" s="45"/>
+      <c r="A41" s="39"/>
       <c r="B41" t="s">
         <v>123</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5" ht="45">
-      <c r="A42" s="45"/>
+      <c r="A42" s="39"/>
       <c r="B42" t="s">
         <v>125</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5" ht="45">
-      <c r="A43" s="45"/>
+      <c r="A43" s="39"/>
       <c r="B43" t="s">
         <v>127</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5" ht="45">
-      <c r="A44" s="45"/>
+      <c r="A44" s="39"/>
       <c r="B44" t="s">
         <v>129</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5" ht="45">
-      <c r="A45" s="45"/>
+      <c r="A45" s="39"/>
       <c r="B45" t="s">
         <v>131</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5" ht="45">
-      <c r="A46" s="45"/>
+      <c r="A46" s="39"/>
       <c r="B46" t="s">
         <v>133</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5" ht="45">
-      <c r="A47" s="45"/>
+      <c r="A47" s="39"/>
       <c r="B47" t="s">
         <v>135</v>
       </c>
@@ -4175,6 +4175,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="E40:E47"/>
     <mergeCell ref="A15:A32"/>
@@ -4184,12 +4190,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4240,7 +4240,7 @@
       <c r="H1" s="2">
         <v>0.17</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>137</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -4304,7 +4304,7 @@
       <c r="H3" s="2">
         <v>14</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>141</v>
       </c>
       <c r="J3" s="23" t="s">
@@ -4368,7 +4368,7 @@
       <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="34" t="s">
         <v>146</v>
       </c>
       <c r="J5" s="23" t="s">
@@ -4648,7 +4648,7 @@
       <c r="E2" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="42" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
         <v>229</v>
       </c>
       <c r="E3" s="53"/>
-      <c r="F3" s="38"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="53"/>
@@ -4678,7 +4678,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="53"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="53" t="s">
@@ -4696,7 +4696,7 @@
       <c r="E5" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="42" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="53"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="53"/>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="53" t="s">
@@ -4744,7 +4744,7 @@
       <c r="E8" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="42" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4760,7 +4760,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="53"/>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="53"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="53" t="s">
@@ -4792,7 +4792,7 @@
       <c r="E11" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="42" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="53"/>
@@ -4822,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="53"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="53"/>
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="53"/>
-      <c r="F14" s="38"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="53"/>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="53"/>
-      <c r="F15" s="38"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="53" t="s">
@@ -4868,7 +4868,7 @@
       <c r="E16" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="42" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="53"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="53"/>
@@ -4898,7 +4898,7 @@
         <v>171</v>
       </c>
       <c r="E18" s="53"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="53"/>
@@ -4912,7 +4912,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="53"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="53"/>
@@ -4926,7 +4926,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="53"/>
-      <c r="F20" s="38"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="53"/>
@@ -4940,7 +4940,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="53"/>
-      <c r="F21" s="38"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="53"/>
@@ -4954,7 +4954,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="53"/>
-      <c r="F22" s="38"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="53"/>
@@ -4968,7 +4968,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="53"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="53"/>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="53"/>
-      <c r="F24" s="38"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="53" t="s">
@@ -5000,7 +5000,7 @@
       <c r="E25" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="42" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
         <v>591</v>
       </c>
       <c r="E26" s="53"/>
-      <c r="F26" s="38"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="53"/>
@@ -5030,7 +5030,7 @@
         <v>60</v>
       </c>
       <c r="E27" s="53"/>
-      <c r="F27" s="38"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="53" t="s">
@@ -5048,7 +5048,7 @@
       <c r="E28" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="42" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5064,7 +5064,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="53"/>
-      <c r="F29" s="38"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="53"/>
@@ -5078,7 +5078,7 @@
         <v>331</v>
       </c>
       <c r="E30" s="53"/>
-      <c r="F30" s="38"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="53"/>
@@ -5092,7 +5092,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="53"/>
-      <c r="F31" s="38"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="53"/>
@@ -5106,7 +5106,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="53"/>
-      <c r="F32" s="38"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="53"/>
@@ -5120,7 +5120,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="53"/>
-      <c r="F33" s="38"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="53" t="s">
@@ -5136,7 +5136,7 @@
       <c r="E34" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="42" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="53"/>
-      <c r="F35" s="38"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="53"/>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="53"/>
-      <c r="F36" s="38"/>
+      <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1">
       <c r="A37" s="53" t="s">
@@ -5178,7 +5178,7 @@
       <c r="E37" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="42" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       <c r="E40" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="F40" s="38"/>
+      <c r="F40" s="42"/>
     </row>
     <row r="41" spans="1:6" ht="38.25" customHeight="1">
       <c r="A41" s="53"/>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="38"/>
+      <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:6" ht="17.25" customHeight="1">
       <c r="A42" s="53"/>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="54"/>
-      <c r="F42" s="38"/>
+      <c r="F42" s="42"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1">
       <c r="A43" s="53" t="s">
@@ -5260,7 +5260,7 @@
       <c r="E43" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="42" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="53"/>
-      <c r="F44" s="38"/>
+      <c r="F44" s="42"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="53"/>
@@ -5286,10 +5286,34 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="53"/>
-      <c r="F45" s="38"/>
+      <c r="F45" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="F16:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="E43:E45"/>
     <mergeCell ref="F43:F45"/>
@@ -5299,30 +5323,6 @@
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="E16:E24"/>
-    <mergeCell ref="F16:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5571,21 +5571,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100736BC6A5805E8A4EA9D6E053978B9D17" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a77f87d969ff8693ed42f3dce4ecdbf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="319ce610-c78e-4316-85c6-ba0037bbee08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c7bf169c87f59ad05a7cc2baf43bac2" ns2:_="">
     <xsd:import namespace="319ce610-c78e-4316-85c6-ba0037bbee08"/>
@@ -5717,8 +5702,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B6FB0B7-6175-4879-ABCD-7589457B944F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F83D21F-F522-4916-B632-1A12E60DB31D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5726,5 +5726,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F83D21F-F522-4916-B632-1A12E60DB31D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B6FB0B7-6175-4879-ABCD-7589457B944F}"/>
 </file>
--- a/models/DevModelParameters.xlsx
+++ b/models/DevModelParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsites.cdw.va.gov/sites/PTSD_OMHO/640/100a1_abc_teama_2018_11_01/100a1_abc_teama_data_ui/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{76101B6A-99E2-4D8A-8CA9-D07AA3CB8C81}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{114114C9-82D0-4A0A-8802-00F48C4EF737}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{30F14DEA-E4DC-4D7D-8C51-606589E22A12}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>Appointment Supply (75th percentile)</t>
   </si>
   <si>
-    <t>An estimate of the weekly number of care coordination appointments available with this team. The estimate is calculated using the volume of care coordination visits completed with the team over one year. (appt/wkkf)</t>
+    <t>An estimate of the weekly number of care coordination appointments available with this team. The estimate is calculated using the volume of care coordination visits completed with the team over one year. (appt/wkkfffff)</t>
   </si>
   <si>
     <t>Engagement (mean)</t>

--- a/models/DevModelParameters.xlsx
+++ b/models/DevModelParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsites.cdw.va.gov/sites/PTSD_OMHO/640/100a1_abc_teama_2018_11_01/100a1_abc_teama_data_ui/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{114114C9-82D0-4A0A-8802-00F48C4EF737}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A4E28D0F-FC6F-4256-B275-468028797747}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{30F14DEA-E4DC-4D7D-8C51-606589E22A12}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>Appointment Supply (75th percentile)</t>
   </si>
   <si>
-    <t>An estimate of the weekly number of care coordination appointments available with this team. The estimate is calculated using the volume of care coordination visits completed with the team over one year. (appt/wkkfffff)</t>
+    <t>An estimate of the weekly number of care coordination appointments available with this team. The estimate is calculated using the volume of care coordination visits completed with the team over one year. (appt/wkkffffffff)</t>
   </si>
   <si>
     <t>Engagement (mean)</t>

--- a/models/DevModelParameters.xlsx
+++ b/models/DevModelParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsites.cdw.va.gov/sites/PTSD_OMHO/640/100a1_abc_teama_2018_11_01/100a1_abc_teama_data_ui/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A4E28D0F-FC6F-4256-B275-468028797747}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A6559072-A65B-4ED3-97CD-10E9DD785479}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{30F14DEA-E4DC-4D7D-8C51-606589E22A12}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <t>Start Rate (mean)</t>
   </si>
   <si>
-    <t>An estimate of the number of new patients starting with the team per week, calculated from the number of patients seen for care coordination in one year who have never had a care coordination visit with this team before. (pts/wk)</t>
+    <t>An estimate of the number of new patients starting with the team per week, calculated from the number of patients seen for care coordination in one year who have never had a care coordination visit with this team before. (pts/wkkk)</t>
   </si>
   <si>
     <t>See the DataNotes tab for details on the patient cohort and encounter type bins.</t>
@@ -1123,11 +1123,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1135,11 +1135,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1147,23 +1147,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2995,8 +2995,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3603,7 +3603,7 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3612,7 +3612,7 @@
       <c r="C3" s="2">
         <v>0.2</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="40" t="s">
@@ -3620,55 +3620,55 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="42"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>0.27</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="42"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="42"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="2">
         <v>0.52</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="45">
-      <c r="A7" s="43"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="2">
         <v>0.06</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="40"/>
@@ -3683,81 +3683,81 @@
       <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="43" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="42"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="47"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="42"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="47"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="42"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="47"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="42"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="47"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="42"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="43"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="2">
         <v>7</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="47"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="41" t="s">
@@ -3769,7 +3769,7 @@
       <c r="C15" s="15">
         <v>18</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="42" t="s">
         <v>89</v>
       </c>
       <c r="E15" s="40" t="s">
@@ -3777,196 +3777,196 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="42"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="2">
         <v>25</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="42"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="16">
         <v>18</v>
       </c>
-      <c r="D17" s="44"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="42"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="15">
         <v>8</v>
       </c>
-      <c r="D18" s="44"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="42"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="42"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="16">
         <v>8</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="42"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="42"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="42"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="2">
         <v>11</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="42"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="15">
         <v>18</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="42" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="42"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="2">
         <v>50</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="42"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="2">
         <v>91</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="42"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="15">
         <v>16</v>
       </c>
-      <c r="D27" s="44"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="42"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="2">
         <v>28</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="42"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C29" s="2">
         <v>46</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="42"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C30" s="15">
         <v>14</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="42"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="2">
         <v>38</v>
       </c>
-      <c r="D31" s="44"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="43"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="2">
         <v>88</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5" ht="45">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="34" t="s">
         <v>109</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -3975,7 +3975,7 @@
       <c r="C33" s="15">
         <v>2.44</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E33" s="14" t="s">
@@ -3983,7 +3983,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="44" t="s">
         <v>112</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -4000,7 +4000,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45">
-      <c r="A35" s="39"/>
+      <c r="A35" s="45"/>
       <c r="B35" t="s">
         <v>20</v>
       </c>
@@ -4015,14 +4015,14 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45">
-      <c r="A36" s="45"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="16">
         <v>13</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="35" t="s">
         <v>113</v>
       </c>
       <c r="E36" s="19" t="s">
@@ -4030,7 +4030,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="44" t="s">
         <v>114</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -4039,7 +4039,7 @@
       <c r="C37" s="15">
         <v>161</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="35" t="s">
         <v>116</v>
       </c>
       <c r="E37" s="14" t="s">
@@ -4047,26 +4047,26 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="39"/>
+      <c r="A38" s="45"/>
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="47" t="s">
         <v>118</v>
       </c>
       <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="45"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21">
         <v>0</v>
       </c>
-      <c r="D39" s="46"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="45">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="44" t="s">
         <v>119</v>
       </c>
       <c r="B40" t="s">
@@ -4083,7 +4083,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="45">
-      <c r="A41" s="39"/>
+      <c r="A41" s="45"/>
       <c r="B41" t="s">
         <v>123</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5" ht="45">
-      <c r="A42" s="39"/>
+      <c r="A42" s="45"/>
       <c r="B42" t="s">
         <v>125</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5" ht="45">
-      <c r="A43" s="39"/>
+      <c r="A43" s="45"/>
       <c r="B43" t="s">
         <v>127</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5" ht="45">
-      <c r="A44" s="39"/>
+      <c r="A44" s="45"/>
       <c r="B44" t="s">
         <v>129</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5" ht="45">
-      <c r="A45" s="39"/>
+      <c r="A45" s="45"/>
       <c r="B45" t="s">
         <v>131</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5" ht="45">
-      <c r="A46" s="39"/>
+      <c r="A46" s="45"/>
       <c r="B46" t="s">
         <v>133</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5" ht="45">
-      <c r="A47" s="39"/>
+      <c r="A47" s="45"/>
       <c r="B47" t="s">
         <v>135</v>
       </c>
@@ -4175,12 +4175,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="E40:E47"/>
     <mergeCell ref="A15:A32"/>
@@ -4190,6 +4184,12 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4240,7 +4240,7 @@
       <c r="H1" s="2">
         <v>0.17</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>137</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -4304,7 +4304,7 @@
       <c r="H3" s="2">
         <v>14</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="35" t="s">
         <v>141</v>
       </c>
       <c r="J3" s="23" t="s">
@@ -4368,7 +4368,7 @@
       <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>146</v>
       </c>
       <c r="J5" s="23" t="s">
@@ -4648,7 +4648,7 @@
       <c r="E2" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="38" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
         <v>229</v>
       </c>
       <c r="E3" s="53"/>
-      <c r="F3" s="42"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="53"/>
@@ -4678,7 +4678,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="53"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="53" t="s">
@@ -4696,7 +4696,7 @@
       <c r="E5" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="38" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="53"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="53"/>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="53" t="s">
@@ -4744,7 +4744,7 @@
       <c r="E8" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="38" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4760,7 +4760,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="42"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="53"/>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="53"/>
-      <c r="F10" s="42"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="53" t="s">
@@ -4792,7 +4792,7 @@
       <c r="E11" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="38" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="53"/>
@@ -4822,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="53"/>
-      <c r="F13" s="42"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="53"/>
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="53"/>
-      <c r="F14" s="42"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="53"/>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="53"/>
-      <c r="F15" s="42"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="53" t="s">
@@ -4868,7 +4868,7 @@
       <c r="E16" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="38" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="53"/>
-      <c r="F17" s="42"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="53"/>
@@ -4898,7 +4898,7 @@
         <v>171</v>
       </c>
       <c r="E18" s="53"/>
-      <c r="F18" s="42"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="53"/>
@@ -4912,7 +4912,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="53"/>
-      <c r="F19" s="42"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="53"/>
@@ -4926,7 +4926,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="53"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="53"/>
@@ -4940,7 +4940,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="53"/>
-      <c r="F21" s="42"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="53"/>
@@ -4954,7 +4954,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="53"/>
-      <c r="F22" s="42"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="53"/>
@@ -4968,7 +4968,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="53"/>
-      <c r="F23" s="42"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="53"/>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="53"/>
-      <c r="F24" s="42"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="53" t="s">
@@ -5000,7 +5000,7 @@
       <c r="E25" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
         <v>591</v>
       </c>
       <c r="E26" s="53"/>
-      <c r="F26" s="42"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="53"/>
@@ -5030,7 +5030,7 @@
         <v>60</v>
       </c>
       <c r="E27" s="53"/>
-      <c r="F27" s="42"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="53" t="s">
@@ -5048,7 +5048,7 @@
       <c r="E28" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="38" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5064,7 +5064,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="53"/>
-      <c r="F29" s="42"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="53"/>
@@ -5078,7 +5078,7 @@
         <v>331</v>
       </c>
       <c r="E30" s="53"/>
-      <c r="F30" s="42"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="53"/>
@@ -5092,7 +5092,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="53"/>
-      <c r="F31" s="42"/>
+      <c r="F31" s="38"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="53"/>
@@ -5106,7 +5106,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="53"/>
-      <c r="F32" s="42"/>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="53"/>
@@ -5120,7 +5120,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="53"/>
-      <c r="F33" s="42"/>
+      <c r="F33" s="38"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="53" t="s">
@@ -5136,7 +5136,7 @@
       <c r="E34" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="38" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="53"/>
-      <c r="F35" s="42"/>
+      <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="53"/>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="53"/>
-      <c r="F36" s="42"/>
+      <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1">
       <c r="A37" s="53" t="s">
@@ -5178,7 +5178,7 @@
       <c r="E37" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="38" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       <c r="E40" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="F40" s="42"/>
+      <c r="F40" s="38"/>
     </row>
     <row r="41" spans="1:6" ht="38.25" customHeight="1">
       <c r="A41" s="53"/>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="42"/>
+      <c r="F41" s="38"/>
     </row>
     <row r="42" spans="1:6" ht="17.25" customHeight="1">
       <c r="A42" s="53"/>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="54"/>
-      <c r="F42" s="42"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1">
       <c r="A43" s="53" t="s">
@@ -5260,7 +5260,7 @@
       <c r="E43" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="38" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="53"/>
-      <c r="F44" s="42"/>
+      <c r="F44" s="38"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="53"/>
@@ -5286,34 +5286,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="53"/>
-      <c r="F45" s="42"/>
+      <c r="F45" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="E16:E24"/>
-    <mergeCell ref="F16:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="E43:E45"/>
     <mergeCell ref="F43:F45"/>
@@ -5323,6 +5299,30 @@
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="F40:F42"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="F16:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5703,12 +5703,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5717,14 +5711,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F83D21F-F522-4916-B632-1A12E60DB31D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E15487D-99DE-4ECE-B54D-757DB800411F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B6FB0B7-6175-4879-ABCD-7589457B944F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B6FB0B7-6175-4879-ABCD-7589457B944F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E15487D-99DE-4ECE-B54D-757DB800411F}"/>
 </file>
--- a/models/DevModelParameters.xlsx
+++ b/models/DevModelParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsites.cdw.va.gov/sites/PTSD_OMHO/640/100a1_abc_teama_2018_11_01/100a1_abc_teama_data_ui/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A6559072-A65B-4ED3-97CD-10E9DD785479}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{801C55AA-69CA-4A5B-9987-698FCFEC6BCA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{30F14DEA-E4DC-4D7D-8C51-606589E22A12}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <t>Start Rate (mean)</t>
   </si>
   <si>
-    <t>An estimate of the number of new patients starting with the team per week, calculated from the number of patients seen for care coordination in one year who have never had a care coordination visit with this team before. (pts/wkkk)</t>
+    <t>An estimate of the number of new patients starting with the team per week, calculated from the number of patients seen for care coordination in one year who have never had a care coordination visit with this team before. (pts/wkkkhhhhhh)</t>
   </si>
   <si>
     <t>See the DataNotes tab for details on the patient cohort and encounter type bins.</t>
@@ -1123,11 +1123,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1135,11 +1135,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1147,23 +1147,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3603,7 +3603,7 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3612,7 +3612,7 @@
       <c r="C3" s="2">
         <v>0.2</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="40" t="s">
@@ -3620,55 +3620,55 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>0.27</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="38"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="38"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="2">
         <v>0.52</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="45">
-      <c r="A7" s="39"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="2">
         <v>0.06</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="40"/>
@@ -3683,81 +3683,81 @@
       <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="47" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="38"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="38"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="38"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="38"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="38"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="39"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="2">
         <v>7</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="41" t="s">
@@ -3769,7 +3769,7 @@
       <c r="C15" s="15">
         <v>18</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="44" t="s">
         <v>89</v>
       </c>
       <c r="E15" s="40" t="s">
@@ -3777,196 +3777,196 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="38"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="2">
         <v>25</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="38"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="16">
         <v>18</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="38"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="15">
         <v>8</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="38"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="38"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="16">
         <v>8</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="38"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="38"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="38"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="2">
         <v>11</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="38"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="15">
         <v>18</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="44" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="38"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="2">
         <v>50</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="38"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="2">
         <v>91</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="38"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="15">
         <v>16</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="38"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="2">
         <v>28</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="38"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C29" s="2">
         <v>46</v>
       </c>
-      <c r="D29" s="42"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="38"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C30" s="15">
         <v>14</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="38"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="2">
         <v>38</v>
       </c>
-      <c r="D31" s="42"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="39"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="2">
         <v>88</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5" ht="45">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="35" t="s">
         <v>109</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -3975,7 +3975,7 @@
       <c r="C33" s="15">
         <v>2.44</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>111</v>
       </c>
       <c r="E33" s="14" t="s">
@@ -3983,7 +3983,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="38" t="s">
         <v>112</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -4000,7 +4000,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45">
-      <c r="A35" s="45"/>
+      <c r="A35" s="39"/>
       <c r="B35" t="s">
         <v>20</v>
       </c>
@@ -4015,14 +4015,14 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45">
-      <c r="A36" s="46"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="16">
         <v>13</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>113</v>
       </c>
       <c r="E36" s="19" t="s">
@@ -4030,7 +4030,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="38" t="s">
         <v>114</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -4039,7 +4039,7 @@
       <c r="C37" s="15">
         <v>161</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>116</v>
       </c>
       <c r="E37" s="14" t="s">
@@ -4047,26 +4047,26 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="45"/>
+      <c r="A38" s="39"/>
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="46" t="s">
         <v>118</v>
       </c>
       <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="46"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21">
         <v>0</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="45">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="38" t="s">
         <v>119</v>
       </c>
       <c r="B40" t="s">
@@ -4083,7 +4083,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="45">
-      <c r="A41" s="45"/>
+      <c r="A41" s="39"/>
       <c r="B41" t="s">
         <v>123</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5" ht="45">
-      <c r="A42" s="45"/>
+      <c r="A42" s="39"/>
       <c r="B42" t="s">
         <v>125</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5" ht="45">
-      <c r="A43" s="45"/>
+      <c r="A43" s="39"/>
       <c r="B43" t="s">
         <v>127</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5" ht="45">
-      <c r="A44" s="45"/>
+      <c r="A44" s="39"/>
       <c r="B44" t="s">
         <v>129</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5" ht="45">
-      <c r="A45" s="45"/>
+      <c r="A45" s="39"/>
       <c r="B45" t="s">
         <v>131</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5" ht="45">
-      <c r="A46" s="45"/>
+      <c r="A46" s="39"/>
       <c r="B46" t="s">
         <v>133</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5" ht="45">
-      <c r="A47" s="45"/>
+      <c r="A47" s="39"/>
       <c r="B47" t="s">
         <v>135</v>
       </c>
@@ -4175,6 +4175,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="E40:E47"/>
     <mergeCell ref="A15:A32"/>
@@ -4184,12 +4190,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4240,7 +4240,7 @@
       <c r="H1" s="2">
         <v>0.17</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>137</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -4304,7 +4304,7 @@
       <c r="H3" s="2">
         <v>14</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>141</v>
       </c>
       <c r="J3" s="23" t="s">
@@ -4368,7 +4368,7 @@
       <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="34" t="s">
         <v>146</v>
       </c>
       <c r="J5" s="23" t="s">
@@ -4648,7 +4648,7 @@
       <c r="E2" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="42" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
         <v>229</v>
       </c>
       <c r="E3" s="53"/>
-      <c r="F3" s="38"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="53"/>
@@ -4678,7 +4678,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="53"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="53" t="s">
@@ -4696,7 +4696,7 @@
       <c r="E5" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="42" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="53"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="53"/>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="53" t="s">
@@ -4744,7 +4744,7 @@
       <c r="E8" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="42" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4760,7 +4760,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="53"/>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="53"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="53" t="s">
@@ -4792,7 +4792,7 @@
       <c r="E11" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="42" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="53"/>
@@ -4822,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="53"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="53"/>
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="53"/>
-      <c r="F14" s="38"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="53"/>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="53"/>
-      <c r="F15" s="38"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="53" t="s">
@@ -4868,7 +4868,7 @@
       <c r="E16" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="42" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="53"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="53"/>
@@ -4898,7 +4898,7 @@
         <v>171</v>
       </c>
       <c r="E18" s="53"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="53"/>
@@ -4912,7 +4912,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="53"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="53"/>
@@ -4926,7 +4926,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="53"/>
-      <c r="F20" s="38"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="53"/>
@@ -4940,7 +4940,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="53"/>
-      <c r="F21" s="38"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="53"/>
@@ -4954,7 +4954,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="53"/>
-      <c r="F22" s="38"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="53"/>
@@ -4968,7 +4968,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="53"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="53"/>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="53"/>
-      <c r="F24" s="38"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="53" t="s">
@@ -5000,7 +5000,7 @@
       <c r="E25" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="42" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
         <v>591</v>
       </c>
       <c r="E26" s="53"/>
-      <c r="F26" s="38"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="53"/>
@@ -5030,7 +5030,7 @@
         <v>60</v>
       </c>
       <c r="E27" s="53"/>
-      <c r="F27" s="38"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="53" t="s">
@@ -5048,7 +5048,7 @@
       <c r="E28" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="42" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5064,7 +5064,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="53"/>
-      <c r="F29" s="38"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="53"/>
@@ -5078,7 +5078,7 @@
         <v>331</v>
       </c>
       <c r="E30" s="53"/>
-      <c r="F30" s="38"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="53"/>
@@ -5092,7 +5092,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="53"/>
-      <c r="F31" s="38"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="53"/>
@@ -5106,7 +5106,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="53"/>
-      <c r="F32" s="38"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="53"/>
@@ -5120,7 +5120,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="53"/>
-      <c r="F33" s="38"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="53" t="s">
@@ -5136,7 +5136,7 @@
       <c r="E34" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="42" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="53"/>
-      <c r="F35" s="38"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="53"/>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="53"/>
-      <c r="F36" s="38"/>
+      <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1">
       <c r="A37" s="53" t="s">
@@ -5178,7 +5178,7 @@
       <c r="E37" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="42" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       <c r="E40" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="F40" s="38"/>
+      <c r="F40" s="42"/>
     </row>
     <row r="41" spans="1:6" ht="38.25" customHeight="1">
       <c r="A41" s="53"/>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="38"/>
+      <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:6" ht="17.25" customHeight="1">
       <c r="A42" s="53"/>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="54"/>
-      <c r="F42" s="38"/>
+      <c r="F42" s="42"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1">
       <c r="A43" s="53" t="s">
@@ -5260,7 +5260,7 @@
       <c r="E43" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="42" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="53"/>
-      <c r="F44" s="38"/>
+      <c r="F44" s="42"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="53"/>
@@ -5286,10 +5286,34 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="53"/>
-      <c r="F45" s="38"/>
+      <c r="F45" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="F16:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="E43:E45"/>
     <mergeCell ref="F43:F45"/>
@@ -5299,30 +5323,6 @@
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="E16:E24"/>
-    <mergeCell ref="F16:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5571,6 +5571,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100736BC6A5805E8A4EA9D6E053978B9D17" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a77f87d969ff8693ed42f3dce4ecdbf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="319ce610-c78e-4316-85c6-ba0037bbee08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c7bf169c87f59ad05a7cc2baf43bac2" ns2:_="">
     <xsd:import namespace="319ce610-c78e-4316-85c6-ba0037bbee08"/>
@@ -5702,23 +5717,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F83D21F-F522-4916-B632-1A12E60DB31D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E15487D-99DE-4ECE-B54D-757DB800411F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5726,5 +5726,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E15487D-99DE-4ECE-B54D-757DB800411F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F83D21F-F522-4916-B632-1A12E60DB31D}"/>
 </file>
--- a/models/DevModelParameters.xlsx
+++ b/models/DevModelParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsites.cdw.va.gov/sites/PTSD_OMHO/640/100a1_abc_teama_2018_11_01/100a1_abc_teama_data_ui/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{801C55AA-69CA-4A5B-9987-698FCFEC6BCA}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{FF48DF5D-47A2-40AC-8DB8-1A65F219C343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AC411038-E549-4BF5-AC2B-5094BF5C2B1B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{30F14DEA-E4DC-4D7D-8C51-606589E22A12}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>True Missed Appointment %</t>
   </si>
   <si>
-    <t>The proportion of care coordination appointments with this team that no-showed or were cancelled after the appointment was supposed to have happened. (pceeet)</t>
+    <t>The proportion of care coordination appointments with this team that no-showed or were cancelled after the appointment was supposed to have happened. (pceeeeeeet)</t>
   </si>
   <si>
     <t>These estimates were calculated from the visits and appointments of the patient cohort.  Note that missed appointments do not have an associated visit record, and so do not have an encounter type. Therefore, the missed appointment percentage for care coordination was estimated by using patient characteristics: all the patients who had a care coordination visit have all their missed appointments counted towards care coordination. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
@@ -2996,7 +2996,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
